--- a/England/Premier League/Ligenhistorie.xlsx
+++ b/England/Premier League/Ligenhistorie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Desktop\footballstats\footballstats\England\Premier League\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0676FB-FC64-4589-8326-7F4A13B1744C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBCDD78-8D61-4944-8722-C0A22A3C1924}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="2310" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1800" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
   <si>
     <t>Vereine</t>
   </si>
@@ -307,6 +307,36 @@
   </si>
   <si>
     <t>87/88</t>
+  </si>
+  <si>
+    <t>Liverpool FC</t>
+  </si>
+  <si>
+    <t>Arsenal FC</t>
+  </si>
+  <si>
+    <t>Everton FC</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>Chelsea FC</t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
+  </si>
+  <si>
+    <t>Sunderland AFC</t>
   </si>
 </sst>
 </file>
@@ -344,12 +374,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -364,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -375,6 +429,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -659,15 +725,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DT11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="DD1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="DT10" sqref="DT10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="2" max="2" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="124" width="4.7109375" style="1" customWidth="1"/>
     <col min="125" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1047,50 +1113,3616 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>16</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8">
+        <v>5</v>
+      </c>
+      <c r="L2" s="8">
+        <v>9</v>
+      </c>
+      <c r="M2" s="8">
+        <v>2</v>
+      </c>
+      <c r="N2" s="8">
+        <v>10</v>
+      </c>
+      <c r="O2" s="8">
+        <v>1</v>
+      </c>
+      <c r="P2" s="8">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>5</v>
+      </c>
+      <c r="R2" s="8">
+        <v>17</v>
+      </c>
+      <c r="S2" s="7">
+        <v>1</v>
+      </c>
+      <c r="T2" s="8">
+        <v>1</v>
+      </c>
+      <c r="U2" s="8">
+        <v>15</v>
+      </c>
+      <c r="V2" s="8">
+        <v>8</v>
+      </c>
+      <c r="W2" s="8">
+        <v>16</v>
+      </c>
+      <c r="X2" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>13</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>4</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>12</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="8">
+        <v>7</v>
+      </c>
+      <c r="AK2" s="8">
+        <v>9</v>
+      </c>
+      <c r="AL2" s="8">
+        <v>16</v>
+      </c>
+      <c r="AM2" s="8">
+        <v>5</v>
+      </c>
+      <c r="AN2" s="8">
+        <v>12</v>
+      </c>
+      <c r="AO2" s="8">
+        <v>9</v>
+      </c>
+      <c r="AP2" s="8">
+        <v>10</v>
+      </c>
+      <c r="AQ2" s="8">
+        <v>14</v>
+      </c>
+      <c r="AR2" s="8">
+        <v>18</v>
+      </c>
+      <c r="AS2" s="8">
+        <v>7</v>
+      </c>
+      <c r="AT2" s="8">
+        <v>19</v>
+      </c>
+      <c r="AU2" s="8">
+        <v>18</v>
+      </c>
+      <c r="AV2" s="8">
+        <v>11</v>
+      </c>
+      <c r="AW2" s="8">
+        <v>11</v>
+      </c>
+      <c r="AX2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="8">
+        <v>11</v>
+      </c>
+      <c r="AZ2" s="8">
+        <v>12</v>
+      </c>
+      <c r="BA2" s="8">
+        <v>8</v>
+      </c>
+      <c r="BB2" s="8">
+        <v>9</v>
+      </c>
+      <c r="BC2" s="8">
+        <v>11</v>
+      </c>
+      <c r="BD2" s="8">
+        <v>17</v>
+      </c>
+      <c r="BE2" s="8">
+        <v>22</v>
+      </c>
+      <c r="BF2" s="7">
+        <v>11</v>
+      </c>
+      <c r="BG2" s="7">
+        <v>3</v>
+      </c>
+      <c r="BH2" s="7">
+        <v>3</v>
+      </c>
+      <c r="BI2" s="7">
+        <v>4</v>
+      </c>
+      <c r="BJ2" s="7">
+        <v>4</v>
+      </c>
+      <c r="BK2" s="7">
+        <v>3</v>
+      </c>
+      <c r="BL2" s="7">
+        <v>3</v>
+      </c>
+      <c r="BM2" s="7">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="8">
+        <v>8</v>
+      </c>
+      <c r="BO2" s="8">
+        <v>1</v>
+      </c>
+      <c r="BP2" s="8">
+        <v>7</v>
+      </c>
+      <c r="BQ2" s="8">
+        <v>1</v>
+      </c>
+      <c r="BR2" s="8">
+        <v>5</v>
+      </c>
+      <c r="BS2" s="8">
+        <v>3</v>
+      </c>
+      <c r="BT2" s="8">
+        <v>2</v>
+      </c>
+      <c r="BU2" s="8">
+        <v>5</v>
+      </c>
+      <c r="BV2" s="8">
+        <v>5</v>
+      </c>
+      <c r="BW2" s="8">
+        <v>3</v>
+      </c>
+      <c r="BX2" s="8">
+        <v>1</v>
+      </c>
+      <c r="BY2" s="8">
+        <v>2</v>
+      </c>
+      <c r="BZ2" s="8">
+        <v>3</v>
+      </c>
+      <c r="CA2" s="8">
+        <v>1</v>
+      </c>
+      <c r="CB2" s="8">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="8">
+        <v>2</v>
+      </c>
+      <c r="CD2" s="8">
+        <v>1</v>
+      </c>
+      <c r="CE2" s="8">
+        <v>1</v>
+      </c>
+      <c r="CF2" s="8">
+        <v>5</v>
+      </c>
+      <c r="CG2" s="8">
+        <v>1</v>
+      </c>
+      <c r="CH2" s="8">
+        <v>1</v>
+      </c>
+      <c r="CI2" s="8">
+        <v>1</v>
+      </c>
+      <c r="CJ2" s="8">
+        <v>2</v>
+      </c>
+      <c r="CK2" s="8">
+        <v>1</v>
+      </c>
+      <c r="CL2" s="8">
+        <v>2</v>
+      </c>
+      <c r="CM2" s="8">
+        <v>1</v>
+      </c>
+      <c r="CN2" s="8">
+        <v>2</v>
+      </c>
+      <c r="CO2" s="8">
+        <v>1</v>
+      </c>
+      <c r="CP2" s="8">
+        <v>2</v>
+      </c>
+      <c r="CQ2" s="8">
+        <v>6</v>
+      </c>
+      <c r="CR2" s="8">
+        <v>6</v>
+      </c>
+      <c r="CS2" s="8">
+        <v>8</v>
+      </c>
+      <c r="CT2" s="8">
+        <v>4</v>
+      </c>
+      <c r="CU2" s="8">
+        <v>3</v>
+      </c>
+      <c r="CV2" s="8">
+        <v>4</v>
+      </c>
+      <c r="CW2" s="8">
+        <v>3</v>
+      </c>
+      <c r="CX2" s="8">
+        <v>7</v>
+      </c>
+      <c r="CY2" s="8">
+        <v>4</v>
+      </c>
+      <c r="CZ2" s="8">
+        <v>3</v>
+      </c>
+      <c r="DA2" s="8">
+        <v>2</v>
+      </c>
+      <c r="DB2" s="8">
+        <v>5</v>
+      </c>
+      <c r="DC2" s="8">
+        <v>4</v>
+      </c>
+      <c r="DD2" s="8">
+        <v>5</v>
+      </c>
+      <c r="DE2" s="8">
+        <v>3</v>
+      </c>
+      <c r="DF2" s="8">
+        <v>3</v>
+      </c>
+      <c r="DG2" s="8">
+        <v>4</v>
+      </c>
+      <c r="DH2" s="8">
+        <v>2</v>
+      </c>
+      <c r="DI2" s="8">
+        <v>7</v>
+      </c>
+      <c r="DJ2" s="8">
+        <v>6</v>
+      </c>
+      <c r="DK2" s="8">
+        <v>8</v>
+      </c>
+      <c r="DL2" s="8">
+        <v>7</v>
+      </c>
+      <c r="DM2" s="8">
+        <v>2</v>
+      </c>
+      <c r="DN2" s="8">
+        <v>6</v>
+      </c>
+      <c r="DO2" s="8">
+        <v>8</v>
+      </c>
+      <c r="DP2" s="8">
+        <v>4</v>
+      </c>
+      <c r="DQ2" s="8">
+        <v>4</v>
+      </c>
+      <c r="DR2" s="8">
+        <v>2</v>
+      </c>
+      <c r="DS2" s="8">
+        <v>1</v>
+      </c>
+      <c r="DT2" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7">
+        <v>9</v>
+      </c>
+      <c r="I3" s="7">
+        <v>8</v>
+      </c>
+      <c r="J3" s="7">
+        <v>7</v>
+      </c>
+      <c r="K3" s="7">
+        <v>10</v>
+      </c>
+      <c r="L3" s="7">
+        <v>5</v>
+      </c>
+      <c r="M3" s="7">
+        <v>7</v>
+      </c>
+      <c r="N3" s="7">
+        <v>8</v>
+      </c>
+      <c r="O3" s="7">
+        <v>7</v>
+      </c>
+      <c r="P3" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>3</v>
+      </c>
+      <c r="R3" s="7">
+        <v>2</v>
+      </c>
+      <c r="S3" s="8">
+        <v>10</v>
+      </c>
+      <c r="T3" s="8">
+        <v>12</v>
+      </c>
+      <c r="U3" s="8">
+        <v>7</v>
+      </c>
+      <c r="V3" s="8">
+        <v>14</v>
+      </c>
+      <c r="W3" s="8">
+        <v>6</v>
+      </c>
+      <c r="X3" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>20</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>9</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>17</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>11</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>19</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>20</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="8">
+        <v>11</v>
+      </c>
+      <c r="AL3" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM3" s="8">
+        <v>9</v>
+      </c>
+      <c r="AN3" s="8">
+        <v>14</v>
+      </c>
+      <c r="AO3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="8">
+        <v>6</v>
+      </c>
+      <c r="AU3" s="8">
+        <v>3</v>
+      </c>
+      <c r="AV3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="8">
+        <v>5</v>
+      </c>
+      <c r="AX3" s="8">
+        <v>13</v>
+      </c>
+      <c r="AY3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="8">
+        <v>5</v>
+      </c>
+      <c r="BA3" s="8">
+        <v>6</v>
+      </c>
+      <c r="BB3" s="8">
+        <v>5</v>
+      </c>
+      <c r="BC3" s="8">
+        <v>3</v>
+      </c>
+      <c r="BD3" s="8">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="8">
+        <v>12</v>
+      </c>
+      <c r="BF3" s="8">
+        <v>9</v>
+      </c>
+      <c r="BG3" s="8">
+        <v>5</v>
+      </c>
+      <c r="BH3" s="8">
+        <v>5</v>
+      </c>
+      <c r="BI3" s="8">
+        <v>12</v>
+      </c>
+      <c r="BJ3" s="8">
+        <v>3</v>
+      </c>
+      <c r="BK3" s="8">
+        <v>13</v>
+      </c>
+      <c r="BL3" s="8">
+        <v>11</v>
+      </c>
+      <c r="BM3" s="8">
+        <v>10</v>
+      </c>
+      <c r="BN3" s="8">
+        <v>7</v>
+      </c>
+      <c r="BO3" s="8">
+        <v>8</v>
+      </c>
+      <c r="BP3" s="8">
+        <v>13</v>
+      </c>
+      <c r="BQ3" s="8">
+        <v>14</v>
+      </c>
+      <c r="BR3" s="8">
+        <v>7</v>
+      </c>
+      <c r="BS3" s="8">
+        <v>9</v>
+      </c>
+      <c r="BT3" s="8">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="8">
+        <v>12</v>
+      </c>
+      <c r="BV3" s="8">
+        <v>1</v>
+      </c>
+      <c r="BW3" s="8">
+        <v>5</v>
+      </c>
+      <c r="BX3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BY3" s="8">
+        <v>10</v>
+      </c>
+      <c r="BZ3" s="8">
+        <v>16</v>
+      </c>
+      <c r="CA3" s="8">
+        <v>17</v>
+      </c>
+      <c r="CB3" s="8">
+        <v>8</v>
+      </c>
+      <c r="CC3" s="8">
+        <v>5</v>
+      </c>
+      <c r="CD3" s="8">
+        <v>7</v>
+      </c>
+      <c r="CE3" s="8">
+        <v>4</v>
+      </c>
+      <c r="CF3" s="8">
+        <v>3</v>
+      </c>
+      <c r="CG3" s="8">
+        <v>5</v>
+      </c>
+      <c r="CH3" s="8">
+        <v>10</v>
+      </c>
+      <c r="CI3" s="8">
+        <v>6</v>
+      </c>
+      <c r="CJ3" s="8">
+        <v>7</v>
+      </c>
+      <c r="CK3" s="8">
+        <v>7</v>
+      </c>
+      <c r="CL3" s="8">
+        <v>4</v>
+      </c>
+      <c r="CM3" s="8">
+        <v>6</v>
+      </c>
+      <c r="CN3" s="8">
+        <v>1</v>
+      </c>
+      <c r="CO3" s="8">
+        <v>4</v>
+      </c>
+      <c r="CP3" s="8">
+        <v>1</v>
+      </c>
+      <c r="CQ3" s="8">
+        <v>4</v>
+      </c>
+      <c r="CR3" s="8">
+        <v>10</v>
+      </c>
+      <c r="CS3" s="8">
+        <v>4</v>
+      </c>
+      <c r="CT3" s="8">
+        <v>12</v>
+      </c>
+      <c r="CU3" s="8">
+        <v>5</v>
+      </c>
+      <c r="CV3" s="8">
+        <v>3</v>
+      </c>
+      <c r="CW3" s="8">
+        <v>1</v>
+      </c>
+      <c r="CX3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CY3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CZ3" s="8">
+        <v>2</v>
+      </c>
+      <c r="DA3" s="8">
+        <v>1</v>
+      </c>
+      <c r="DB3" s="8">
+        <v>2</v>
+      </c>
+      <c r="DC3" s="8">
+        <v>1</v>
+      </c>
+      <c r="DD3" s="8">
+        <v>2</v>
+      </c>
+      <c r="DE3" s="8">
+        <v>4</v>
+      </c>
+      <c r="DF3" s="8">
+        <v>4</v>
+      </c>
+      <c r="DG3" s="8">
+        <v>3</v>
+      </c>
+      <c r="DH3" s="8">
+        <v>4</v>
+      </c>
+      <c r="DI3" s="8">
+        <v>3</v>
+      </c>
+      <c r="DJ3" s="8">
+        <v>4</v>
+      </c>
+      <c r="DK3" s="8">
+        <v>3</v>
+      </c>
+      <c r="DL3" s="8">
+        <v>4</v>
+      </c>
+      <c r="DM3" s="8">
+        <v>4</v>
+      </c>
+      <c r="DN3" s="8">
+        <v>3</v>
+      </c>
+      <c r="DO3" s="8">
+        <v>2</v>
+      </c>
+      <c r="DP3" s="8">
+        <v>5</v>
+      </c>
+      <c r="DQ3" s="8">
+        <v>6</v>
+      </c>
+      <c r="DR3" s="8">
+        <v>5</v>
+      </c>
+      <c r="DS3" s="8">
+        <v>8</v>
+      </c>
+      <c r="DT3" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="8">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8">
+        <v>3</v>
+      </c>
+      <c r="H4" s="8">
+        <v>6</v>
+      </c>
+      <c r="I4" s="8">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8">
+        <v>3</v>
+      </c>
+      <c r="K4" s="8">
+        <v>7</v>
+      </c>
+      <c r="L4" s="8">
+        <v>4</v>
+      </c>
+      <c r="M4" s="8">
+        <v>4</v>
+      </c>
+      <c r="N4" s="8">
+        <v>11</v>
+      </c>
+      <c r="O4" s="8">
+        <v>7</v>
+      </c>
+      <c r="P4" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>12</v>
+      </c>
+      <c r="R4" s="8">
+        <v>3</v>
+      </c>
+      <c r="S4" s="8">
+        <v>2</v>
+      </c>
+      <c r="T4" s="8">
+        <v>11</v>
+      </c>
+      <c r="U4" s="8">
+        <v>3</v>
+      </c>
+      <c r="V4" s="8">
+        <v>11</v>
+      </c>
+      <c r="W4" s="8">
+        <v>2</v>
+      </c>
+      <c r="X4" s="8">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>11</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>16</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>7</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>20</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>7</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>17</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>11</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>20</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="8">
+        <v>18</v>
+      </c>
+      <c r="AN4" s="8">
+        <v>22</v>
+      </c>
+      <c r="AO4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="8">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="8">
+        <v>14</v>
+      </c>
+      <c r="AS4" s="8">
+        <v>8</v>
+      </c>
+      <c r="AT4" s="8">
+        <v>16</v>
+      </c>
+      <c r="AU4" s="8">
+        <v>17</v>
+      </c>
+      <c r="AV4" s="8">
+        <v>14</v>
+      </c>
+      <c r="AW4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="8">
+        <v>10</v>
+      </c>
+      <c r="AY4" s="8">
+        <v>14</v>
+      </c>
+      <c r="AZ4" s="8">
+        <v>18</v>
+      </c>
+      <c r="BA4" s="8">
+        <v>18</v>
+      </c>
+      <c r="BB4" s="8">
+        <v>22</v>
+      </c>
+      <c r="BC4" s="7">
+        <v>7</v>
+      </c>
+      <c r="BD4" s="7">
+        <v>16</v>
+      </c>
+      <c r="BE4" s="7">
+        <v>2</v>
+      </c>
+      <c r="BF4" s="8">
+        <v>11</v>
+      </c>
+      <c r="BG4" s="8">
+        <v>15</v>
+      </c>
+      <c r="BH4" s="8">
+        <v>15</v>
+      </c>
+      <c r="BI4" s="8">
+        <v>16</v>
+      </c>
+      <c r="BJ4" s="8">
+        <v>16</v>
+      </c>
+      <c r="BK4" s="8">
+        <v>15</v>
+      </c>
+      <c r="BL4" s="8">
+        <v>5</v>
+      </c>
+      <c r="BM4" s="8">
+        <v>4</v>
+      </c>
+      <c r="BN4" s="8">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BP4" s="8">
+        <v>4</v>
+      </c>
+      <c r="BQ4" s="8">
+        <v>11</v>
+      </c>
+      <c r="BR4" s="8">
+        <v>6</v>
+      </c>
+      <c r="BS4" s="8">
+        <v>5</v>
+      </c>
+      <c r="BT4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BU4" s="8">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="8">
+        <v>14</v>
+      </c>
+      <c r="BW4" s="8">
+        <v>15</v>
+      </c>
+      <c r="BX4" s="8">
+        <v>17</v>
+      </c>
+      <c r="BY4" s="8">
+        <v>7</v>
+      </c>
+      <c r="BZ4" s="8">
+        <v>4</v>
+      </c>
+      <c r="CA4" s="8">
+        <v>11</v>
+      </c>
+      <c r="CB4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CC4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CD4" s="8">
+        <v>4</v>
+      </c>
+      <c r="CE4" s="8">
+        <v>19</v>
+      </c>
+      <c r="CF4" s="8">
+        <v>15</v>
+      </c>
+      <c r="CG4" s="8">
+        <v>8</v>
+      </c>
+      <c r="CH4" s="8">
+        <v>7</v>
+      </c>
+      <c r="CI4" s="8">
+        <v>7</v>
+      </c>
+      <c r="CJ4" s="8">
+        <v>1</v>
+      </c>
+      <c r="CK4" s="8">
+        <v>2</v>
+      </c>
+      <c r="CL4" s="8">
+        <v>1</v>
+      </c>
+      <c r="CM4" s="8">
+        <v>4</v>
+      </c>
+      <c r="CN4" s="8">
+        <v>8</v>
+      </c>
+      <c r="CO4" s="8">
+        <v>6</v>
+      </c>
+      <c r="CP4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CQ4" s="8">
+        <v>12</v>
+      </c>
+      <c r="CR4" s="8">
+        <v>13</v>
+      </c>
+      <c r="CS4" s="8">
+        <v>17</v>
+      </c>
+      <c r="CT4" s="8">
+        <v>15</v>
+      </c>
+      <c r="CU4" s="8">
+        <v>6</v>
+      </c>
+      <c r="CV4" s="8">
+        <v>15</v>
+      </c>
+      <c r="CW4" s="8">
+        <v>17</v>
+      </c>
+      <c r="CX4" s="8">
+        <v>14</v>
+      </c>
+      <c r="CY4" s="8">
+        <v>13</v>
+      </c>
+      <c r="CZ4" s="8">
+        <v>16</v>
+      </c>
+      <c r="DA4" s="8">
+        <v>15</v>
+      </c>
+      <c r="DB4" s="8">
+        <v>7</v>
+      </c>
+      <c r="DC4" s="8">
+        <v>17</v>
+      </c>
+      <c r="DD4" s="8">
+        <v>4</v>
+      </c>
+      <c r="DE4" s="8">
+        <v>11</v>
+      </c>
+      <c r="DF4" s="8">
+        <v>6</v>
+      </c>
+      <c r="DG4" s="8">
+        <v>5</v>
+      </c>
+      <c r="DH4" s="8">
+        <v>5</v>
+      </c>
+      <c r="DI4" s="8">
+        <v>8</v>
+      </c>
+      <c r="DJ4" s="8">
+        <v>7</v>
+      </c>
+      <c r="DK4" s="8">
+        <v>7</v>
+      </c>
+      <c r="DL4" s="8">
+        <v>6</v>
+      </c>
+      <c r="DM4" s="8">
+        <v>5</v>
+      </c>
+      <c r="DN4" s="8">
+        <v>11</v>
+      </c>
+      <c r="DO4" s="8">
+        <v>11</v>
+      </c>
+      <c r="DP4" s="8">
+        <v>7</v>
+      </c>
+      <c r="DQ4" s="8">
+        <v>8</v>
+      </c>
+      <c r="DR4" s="8">
+        <v>8</v>
+      </c>
+      <c r="DS4" s="8">
+        <v>12</v>
+      </c>
+      <c r="DT4" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="8">
+        <v>16</v>
+      </c>
+      <c r="H5" s="8">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3</v>
+      </c>
+      <c r="J5" s="7">
+        <v>6</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="7">
+        <v>4</v>
+      </c>
+      <c r="M5" s="7">
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4</v>
+      </c>
+      <c r="O5" s="7">
+        <v>10</v>
+      </c>
+      <c r="P5" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>5</v>
+      </c>
+      <c r="R5" s="7">
+        <v>3</v>
+      </c>
+      <c r="S5" s="7">
+        <v>3</v>
+      </c>
+      <c r="T5" s="7">
+        <v>2</v>
+      </c>
+      <c r="U5" s="8">
+        <v>8</v>
+      </c>
+      <c r="V5" s="8">
+        <v>1</v>
+      </c>
+      <c r="W5" s="8">
+        <v>13</v>
+      </c>
+      <c r="X5" s="8">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>13</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>14</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>18</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>13</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>22</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>4</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>14</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>9</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>15</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>18</v>
+      </c>
+      <c r="AM5" s="8">
+        <v>12</v>
+      </c>
+      <c r="AN5" s="8">
+        <v>17</v>
+      </c>
+      <c r="AO5" s="8">
+        <v>22</v>
+      </c>
+      <c r="AP5" s="7">
+        <v>12</v>
+      </c>
+      <c r="AQ5" s="7">
+        <v>6</v>
+      </c>
+      <c r="AR5" s="7">
+        <v>20</v>
+      </c>
+      <c r="AS5" s="7">
+        <v>5</v>
+      </c>
+      <c r="AT5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="8">
+        <v>21</v>
+      </c>
+      <c r="AV5" s="7">
+        <v>2</v>
+      </c>
+      <c r="AW5" s="8">
+        <v>14</v>
+      </c>
+      <c r="AX5" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY5" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ5" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BB5" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC5" s="8">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="8">
+        <v>8</v>
+      </c>
+      <c r="BE5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BF5" s="8">
+        <v>5</v>
+      </c>
+      <c r="BG5" s="8">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="8">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="8">
+        <v>9</v>
+      </c>
+      <c r="BJ5" s="8">
+        <v>2</v>
+      </c>
+      <c r="BK5" s="8">
+        <v>7</v>
+      </c>
+      <c r="BL5" s="8">
+        <v>7</v>
+      </c>
+      <c r="BM5" s="8">
+        <v>15</v>
+      </c>
+      <c r="BN5" s="8">
+        <v>19</v>
+      </c>
+      <c r="BO5" s="8">
+        <v>2</v>
+      </c>
+      <c r="BP5" s="8">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BR5" s="8">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="8">
+        <v>2</v>
+      </c>
+      <c r="BT5" s="8">
+        <v>11</v>
+      </c>
+      <c r="BU5" s="8">
+        <v>8</v>
+      </c>
+      <c r="BV5" s="8">
+        <v>8</v>
+      </c>
+      <c r="BW5" s="8">
+        <v>8</v>
+      </c>
+      <c r="BX5" s="8">
+        <v>18</v>
+      </c>
+      <c r="BY5" s="8">
+        <v>21</v>
+      </c>
+      <c r="BZ5" s="7">
+        <v>1</v>
+      </c>
+      <c r="CA5" s="8">
+        <v>3</v>
+      </c>
+      <c r="CB5" s="8">
+        <v>6</v>
+      </c>
+      <c r="CC5" s="8">
+        <v>10</v>
+      </c>
+      <c r="CD5" s="8">
+        <v>9</v>
+      </c>
+      <c r="CE5" s="8">
+        <v>2</v>
+      </c>
+      <c r="CF5" s="8">
+        <v>8</v>
+      </c>
+      <c r="CG5" s="8">
+        <v>3</v>
+      </c>
+      <c r="CH5" s="8">
+        <v>3</v>
+      </c>
+      <c r="CI5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CJ5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CK5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CL5" s="8">
+        <v>11</v>
+      </c>
+      <c r="CM5" s="8">
+        <v>2</v>
+      </c>
+      <c r="CN5" s="8">
+        <v>12</v>
+      </c>
+      <c r="CO5" s="8">
+        <v>13</v>
+      </c>
+      <c r="CP5" s="8">
+        <v>6</v>
+      </c>
+      <c r="CQ5" s="8">
+        <v>2</v>
+      </c>
+      <c r="CR5" s="8">
+        <v>1</v>
+      </c>
+      <c r="CS5" s="8">
+        <v>1</v>
+      </c>
+      <c r="CT5" s="8">
+        <v>2</v>
+      </c>
+      <c r="CU5" s="8">
+        <v>1</v>
+      </c>
+      <c r="CV5" s="8">
+        <v>1</v>
+      </c>
+      <c r="CW5" s="8">
+        <v>2</v>
+      </c>
+      <c r="CX5" s="8">
+        <v>1</v>
+      </c>
+      <c r="CY5" s="8">
+        <v>1</v>
+      </c>
+      <c r="CZ5" s="8">
+        <v>1</v>
+      </c>
+      <c r="DA5" s="8">
+        <v>3</v>
+      </c>
+      <c r="DB5" s="8">
+        <v>1</v>
+      </c>
+      <c r="DC5" s="8">
+        <v>3</v>
+      </c>
+      <c r="DD5" s="8">
+        <v>3</v>
+      </c>
+      <c r="DE5" s="8">
+        <v>2</v>
+      </c>
+      <c r="DF5" s="8">
+        <v>1</v>
+      </c>
+      <c r="DG5" s="8">
+        <v>1</v>
+      </c>
+      <c r="DH5" s="8">
+        <v>1</v>
+      </c>
+      <c r="DI5" s="8">
+        <v>2</v>
+      </c>
+      <c r="DJ5" s="8">
+        <v>1</v>
+      </c>
+      <c r="DK5" s="8">
+        <v>2</v>
+      </c>
+      <c r="DL5" s="8">
+        <v>1</v>
+      </c>
+      <c r="DM5" s="8">
+        <v>7</v>
+      </c>
+      <c r="DN5" s="8">
+        <v>4</v>
+      </c>
+      <c r="DO5" s="8">
+        <v>5</v>
+      </c>
+      <c r="DP5" s="8">
+        <v>6</v>
+      </c>
+      <c r="DQ5" s="8">
+        <v>2</v>
+      </c>
+      <c r="DR5" s="8">
+        <v>6</v>
+      </c>
+      <c r="DS5" s="8">
+        <v>3</v>
+      </c>
+      <c r="DT5" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8">
+        <v>9</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>3</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>6</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1</v>
+      </c>
+      <c r="O6" s="8">
+        <v>15</v>
+      </c>
+      <c r="P6" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>2</v>
+      </c>
+      <c r="R6" s="8">
+        <v>5</v>
+      </c>
+      <c r="S6" s="8">
+        <v>4</v>
+      </c>
+      <c r="T6" s="8">
+        <v>8</v>
+      </c>
+      <c r="U6" s="8">
+        <v>5</v>
+      </c>
+      <c r="V6" s="8">
+        <v>2</v>
+      </c>
+      <c r="W6" s="8">
+        <v>7</v>
+      </c>
+      <c r="X6" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>9</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>10</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>6</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>6</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>15</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>6</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>10</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>8</v>
+      </c>
+      <c r="AM6" s="8">
+        <v>3</v>
+      </c>
+      <c r="AN6" s="8">
+        <v>4</v>
+      </c>
+      <c r="AO6" s="8">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AQ6" s="8">
+        <v>2</v>
+      </c>
+      <c r="AR6" s="8">
+        <v>13</v>
+      </c>
+      <c r="AS6" s="8">
+        <v>13</v>
+      </c>
+      <c r="AT6" s="8">
+        <v>21</v>
+      </c>
+      <c r="AU6" s="7">
+        <v>9</v>
+      </c>
+      <c r="AV6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="8">
+        <v>12</v>
+      </c>
+      <c r="AX6" s="8">
+        <v>8</v>
+      </c>
+      <c r="AY6" s="8">
+        <v>6</v>
+      </c>
+      <c r="AZ6" s="8">
+        <v>10</v>
+      </c>
+      <c r="BA6" s="8">
+        <v>12</v>
+      </c>
+      <c r="BB6" s="8">
+        <v>15</v>
+      </c>
+      <c r="BC6" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD6" s="8">
+        <v>11</v>
+      </c>
+      <c r="BE6" s="8">
+        <v>13</v>
+      </c>
+      <c r="BF6" s="8">
+        <v>6</v>
+      </c>
+      <c r="BG6" s="8">
+        <v>20</v>
+      </c>
+      <c r="BH6" s="8">
+        <v>10</v>
+      </c>
+      <c r="BI6" s="8">
+        <v>14</v>
+      </c>
+      <c r="BJ6" s="8">
+        <v>21</v>
+      </c>
+      <c r="BK6" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="8">
+        <v>9</v>
+      </c>
+      <c r="BM6" s="8">
+        <v>7</v>
+      </c>
+      <c r="BN6" s="8">
+        <v>15</v>
+      </c>
+      <c r="BO6" s="8">
+        <v>19</v>
+      </c>
+      <c r="BP6" s="8">
+        <v>16</v>
+      </c>
+      <c r="BQ6" s="8">
+        <v>16</v>
+      </c>
+      <c r="BR6" s="8">
+        <v>21</v>
+      </c>
+      <c r="BS6" s="7">
+        <v>16</v>
+      </c>
+      <c r="BT6" s="7">
+        <v>18</v>
+      </c>
+      <c r="BU6" s="7">
+        <v>21</v>
+      </c>
+      <c r="BV6" s="9">
+        <v>4</v>
+      </c>
+      <c r="BW6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BX6" s="7">
+        <v>3</v>
+      </c>
+      <c r="BY6" s="7">
+        <v>14</v>
+      </c>
+      <c r="BZ6" s="7">
+        <v>2</v>
+      </c>
+      <c r="CA6" s="8">
+        <v>16</v>
+      </c>
+      <c r="CB6" s="8">
+        <v>4</v>
+      </c>
+      <c r="CC6" s="8">
+        <v>8</v>
+      </c>
+      <c r="CD6" s="8">
+        <v>8</v>
+      </c>
+      <c r="CE6" s="8">
+        <v>7</v>
+      </c>
+      <c r="CF6" s="8">
+        <v>1</v>
+      </c>
+      <c r="CG6" s="8">
+        <v>11</v>
+      </c>
+      <c r="CH6" s="8">
+        <v>6</v>
+      </c>
+      <c r="CI6" s="8">
+        <v>10</v>
+      </c>
+      <c r="CJ6" s="8">
+        <v>10</v>
+      </c>
+      <c r="CK6" s="8">
+        <v>16</v>
+      </c>
+      <c r="CL6" s="8">
+        <v>22</v>
+      </c>
+      <c r="CM6" s="7">
+        <v>2</v>
+      </c>
+      <c r="CN6" s="8">
+        <v>17</v>
+      </c>
+      <c r="CO6" s="8">
+        <v>2</v>
+      </c>
+      <c r="CP6" s="8">
+        <v>17</v>
+      </c>
+      <c r="CQ6" s="8">
+        <v>7</v>
+      </c>
+      <c r="CR6" s="8">
+        <v>2</v>
+      </c>
+      <c r="CS6" s="8">
+        <v>10</v>
+      </c>
+      <c r="CT6" s="8">
+        <v>18</v>
+      </c>
+      <c r="CU6" s="8">
+        <v>4</v>
+      </c>
+      <c r="CV6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CW6" s="8">
+        <v>7</v>
+      </c>
+      <c r="CX6" s="8">
+        <v>6</v>
+      </c>
+      <c r="CY6" s="8">
+        <v>6</v>
+      </c>
+      <c r="CZ6" s="8">
+        <v>8</v>
+      </c>
+      <c r="DA6" s="8">
+        <v>8</v>
+      </c>
+      <c r="DB6" s="8">
+        <v>16</v>
+      </c>
+      <c r="DC6" s="8">
+        <v>6</v>
+      </c>
+      <c r="DD6" s="8">
+        <v>10</v>
+      </c>
+      <c r="DE6" s="8">
+        <v>16</v>
+      </c>
+      <c r="DF6" s="8">
+        <v>11</v>
+      </c>
+      <c r="DG6" s="8">
+        <v>6</v>
+      </c>
+      <c r="DH6" s="8">
+        <v>6</v>
+      </c>
+      <c r="DI6" s="8">
+        <v>6</v>
+      </c>
+      <c r="DJ6" s="8">
+        <v>9</v>
+      </c>
+      <c r="DK6" s="8">
+        <v>16</v>
+      </c>
+      <c r="DL6" s="8">
+        <v>15</v>
+      </c>
+      <c r="DM6" s="8">
+        <v>15</v>
+      </c>
+      <c r="DN6" s="8">
+        <v>17</v>
+      </c>
+      <c r="DO6" s="8">
+        <v>20</v>
+      </c>
+      <c r="DP6" s="7">
+        <v>13</v>
+      </c>
+      <c r="DQ6" s="7">
+        <v>4</v>
+      </c>
+      <c r="DR6" s="7">
+        <v>5</v>
+      </c>
+      <c r="DS6" s="8">
+        <v>17</v>
+      </c>
+      <c r="DT6" s="8">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="7">
+        <v>13</v>
+      </c>
+      <c r="I7" s="7">
+        <v>9</v>
+      </c>
+      <c r="J7" s="7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="7">
+        <v>6</v>
+      </c>
+      <c r="L7" s="7">
+        <v>3</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="8">
+        <v>7</v>
+      </c>
+      <c r="O7" s="8">
+        <v>11</v>
+      </c>
+      <c r="P7" s="8">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>1</v>
+      </c>
+      <c r="R7" s="8">
+        <v>2</v>
+      </c>
+      <c r="S7" s="8">
+        <v>3</v>
+      </c>
+      <c r="T7" s="8">
+        <v>5</v>
+      </c>
+      <c r="U7" s="8">
+        <v>17</v>
+      </c>
+      <c r="V7" s="8">
+        <v>3</v>
+      </c>
+      <c r="W7" s="8">
+        <v>19</v>
+      </c>
+      <c r="X7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>17</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>15</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>6</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>13</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>5</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>7</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>10</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>8</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>11</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>10</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>21</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>3</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="8">
+        <v>8</v>
+      </c>
+      <c r="AN7" s="8">
+        <v>3</v>
+      </c>
+      <c r="AO7" s="8">
+        <v>8</v>
+      </c>
+      <c r="AP7" s="8">
+        <v>14</v>
+      </c>
+      <c r="AQ7" s="8">
+        <v>16</v>
+      </c>
+      <c r="AR7" s="8">
+        <v>5</v>
+      </c>
+      <c r="AS7" s="8">
+        <v>4</v>
+      </c>
+      <c r="AT7" s="8">
+        <v>9</v>
+      </c>
+      <c r="AU7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="8">
+        <v>21</v>
+      </c>
+      <c r="AW7" s="7">
+        <v>5</v>
+      </c>
+      <c r="AX7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="8">
+        <v>10</v>
+      </c>
+      <c r="AZ7" s="8">
+        <v>7</v>
+      </c>
+      <c r="BA7" s="8">
+        <v>21</v>
+      </c>
+      <c r="BB7" s="7">
+        <v>2</v>
+      </c>
+      <c r="BC7" s="8">
+        <v>15</v>
+      </c>
+      <c r="BD7" s="8">
+        <v>20</v>
+      </c>
+      <c r="BE7" s="8">
+        <v>17</v>
+      </c>
+      <c r="BF7" s="8">
+        <v>7</v>
+      </c>
+      <c r="BG7" s="8">
+        <v>4</v>
+      </c>
+      <c r="BH7" s="8">
+        <v>18</v>
+      </c>
+      <c r="BI7" s="8">
+        <v>5</v>
+      </c>
+      <c r="BJ7" s="8">
+        <v>20</v>
+      </c>
+      <c r="BK7" s="8">
+        <v>16</v>
+      </c>
+      <c r="BL7" s="8">
+        <v>13</v>
+      </c>
+      <c r="BM7" s="8">
+        <v>12</v>
+      </c>
+      <c r="BN7" s="8">
+        <v>21</v>
+      </c>
+      <c r="BO7" s="7">
+        <v>6</v>
+      </c>
+      <c r="BP7" s="7">
+        <v>11</v>
+      </c>
+      <c r="BQ7" s="7">
+        <v>1</v>
+      </c>
+      <c r="BR7" s="8">
+        <v>15</v>
+      </c>
+      <c r="BS7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BT7" s="8">
+        <v>13</v>
+      </c>
+      <c r="BU7" s="8">
+        <v>10</v>
+      </c>
+      <c r="BV7" s="8">
+        <v>11</v>
+      </c>
+      <c r="BW7" s="8">
+        <v>4</v>
+      </c>
+      <c r="BX7" s="8">
+        <v>11</v>
+      </c>
+      <c r="BY7" s="8">
+        <v>14</v>
+      </c>
+      <c r="BZ7" s="8">
+        <v>8</v>
+      </c>
+      <c r="CA7" s="8">
+        <v>8</v>
+      </c>
+      <c r="CB7" s="8">
+        <v>2</v>
+      </c>
+      <c r="CC7" s="8">
+        <v>4</v>
+      </c>
+      <c r="CD7" s="8">
+        <v>15</v>
+      </c>
+      <c r="CE7" s="8">
+        <v>17</v>
+      </c>
+      <c r="CF7" s="8">
+        <v>12</v>
+      </c>
+      <c r="CG7" s="8">
+        <v>10</v>
+      </c>
+      <c r="CH7" s="8">
+        <v>20</v>
+      </c>
+      <c r="CI7" s="7">
+        <v>4</v>
+      </c>
+      <c r="CJ7" s="7">
+        <v>3</v>
+      </c>
+      <c r="CK7" s="8">
+        <v>15</v>
+      </c>
+      <c r="CL7" s="8">
+        <v>21</v>
+      </c>
+      <c r="CM7" s="7">
+        <v>9</v>
+      </c>
+      <c r="CN7" s="7">
+        <v>2</v>
+      </c>
+      <c r="CO7" s="8">
+        <v>14</v>
+      </c>
+      <c r="CP7" s="8">
+        <v>5</v>
+      </c>
+      <c r="CQ7" s="8">
+        <v>5</v>
+      </c>
+      <c r="CR7" s="8">
+        <v>9</v>
+      </c>
+      <c r="CS7" s="8">
+        <v>16</v>
+      </c>
+      <c r="CT7" s="8">
+        <v>17</v>
+      </c>
+      <c r="CU7" s="8">
+        <v>18</v>
+      </c>
+      <c r="CV7" s="7">
+        <v>14</v>
+      </c>
+      <c r="CW7" s="7">
+        <v>22</v>
+      </c>
+      <c r="CX7" s="9">
+        <v>3</v>
+      </c>
+      <c r="CY7" s="7">
+        <v>2</v>
+      </c>
+      <c r="CZ7" s="8">
+        <v>18</v>
+      </c>
+      <c r="DA7" s="7">
+        <v>1</v>
+      </c>
+      <c r="DB7" s="8">
+        <v>9</v>
+      </c>
+      <c r="DC7" s="8">
+        <v>16</v>
+      </c>
+      <c r="DD7" s="8">
+        <v>8</v>
+      </c>
+      <c r="DE7" s="8">
+        <v>15</v>
+      </c>
+      <c r="DF7" s="8">
+        <v>14</v>
+      </c>
+      <c r="DG7" s="8">
+        <v>9</v>
+      </c>
+      <c r="DH7" s="8">
+        <v>10</v>
+      </c>
+      <c r="DI7" s="8">
+        <v>5</v>
+      </c>
+      <c r="DJ7" s="8">
+        <v>3</v>
+      </c>
+      <c r="DK7" s="8">
+        <v>1</v>
+      </c>
+      <c r="DL7" s="8">
+        <v>2</v>
+      </c>
+      <c r="DM7" s="8">
+        <v>1</v>
+      </c>
+      <c r="DN7" s="8">
+        <v>2</v>
+      </c>
+      <c r="DO7" s="8">
+        <v>4</v>
+      </c>
+      <c r="DP7" s="8">
+        <v>3</v>
+      </c>
+      <c r="DQ7" s="8">
+        <v>1</v>
+      </c>
+      <c r="DR7" s="8">
+        <v>1</v>
+      </c>
+      <c r="DS7" s="8">
+        <v>2</v>
+      </c>
+      <c r="DT7" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="7">
+        <v>2</v>
+      </c>
+      <c r="X8" s="8">
+        <v>15</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>15</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>12</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>17</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>17</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>20</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>12</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>15</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>12</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>15</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>13</v>
+      </c>
+      <c r="AL8" s="8">
+        <v>21</v>
+      </c>
+      <c r="AM8" s="7">
+        <v>10</v>
+      </c>
+      <c r="AN8" s="7">
+        <v>12</v>
+      </c>
+      <c r="AO8" s="7">
+        <v>3</v>
+      </c>
+      <c r="AP8" s="7">
+        <v>8</v>
+      </c>
+      <c r="AQ8" s="7">
+        <v>2</v>
+      </c>
+      <c r="AR8" s="8">
+        <v>3</v>
+      </c>
+      <c r="AS8" s="8">
+        <v>22</v>
+      </c>
+      <c r="AT8" s="7">
+        <v>5</v>
+      </c>
+      <c r="AU8" s="7">
+        <v>10</v>
+      </c>
+      <c r="AV8" s="7">
+        <v>5</v>
+      </c>
+      <c r="AW8" s="7">
+        <v>8</v>
+      </c>
+      <c r="AX8" s="7">
+        <v>6</v>
+      </c>
+      <c r="AY8" s="7">
+        <v>8</v>
+      </c>
+      <c r="AZ8" s="7">
+        <v>5</v>
+      </c>
+      <c r="BA8" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD8" s="8">
+        <v>10</v>
+      </c>
+      <c r="BE8" s="8">
+        <v>16</v>
+      </c>
+      <c r="BF8" s="8">
+        <v>16</v>
+      </c>
+      <c r="BG8" s="8">
+        <v>18</v>
+      </c>
+      <c r="BH8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BI8" s="8">
+        <v>3</v>
+      </c>
+      <c r="BJ8" s="8">
+        <v>18</v>
+      </c>
+      <c r="BK8" s="8">
+        <v>3</v>
+      </c>
+      <c r="BL8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="8">
+        <v>3</v>
+      </c>
+      <c r="BN8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BO8" s="8">
+        <v>4</v>
+      </c>
+      <c r="BP8" s="8">
+        <v>6</v>
+      </c>
+      <c r="BQ8" s="8">
+        <v>8</v>
+      </c>
+      <c r="BR8" s="8">
+        <v>3</v>
+      </c>
+      <c r="BS8" s="8">
+        <v>7</v>
+      </c>
+      <c r="BT8" s="8">
+        <v>6</v>
+      </c>
+      <c r="BU8" s="8">
+        <v>11</v>
+      </c>
+      <c r="BV8" s="8">
+        <v>3</v>
+      </c>
+      <c r="BW8" s="8">
+        <v>6</v>
+      </c>
+      <c r="BX8" s="8">
+        <v>8</v>
+      </c>
+      <c r="BY8" s="8">
+        <v>11</v>
+      </c>
+      <c r="BZ8" s="8">
+        <v>19</v>
+      </c>
+      <c r="CA8" s="8">
+        <v>9</v>
+      </c>
+      <c r="CB8" s="8">
+        <v>22</v>
+      </c>
+      <c r="CC8" s="7">
+        <v>3</v>
+      </c>
+      <c r="CD8" s="8">
+        <v>11</v>
+      </c>
+      <c r="CE8" s="8">
+        <v>14</v>
+      </c>
+      <c r="CF8" s="8">
+        <v>10</v>
+      </c>
+      <c r="CG8" s="8">
+        <v>4</v>
+      </c>
+      <c r="CH8" s="8">
+        <v>4</v>
+      </c>
+      <c r="CI8" s="8">
+        <v>7</v>
+      </c>
+      <c r="CJ8" s="8">
+        <v>3</v>
+      </c>
+      <c r="CK8" s="8">
+        <v>10</v>
+      </c>
+      <c r="CL8" s="8">
+        <v>3</v>
+      </c>
+      <c r="CM8" s="8">
+        <v>13</v>
+      </c>
+      <c r="CN8" s="8">
+        <v>7</v>
+      </c>
+      <c r="CO8" s="8">
+        <v>3</v>
+      </c>
+      <c r="CP8" s="8">
+        <v>10</v>
+      </c>
+      <c r="CQ8" s="8">
+        <v>15</v>
+      </c>
+      <c r="CR8" s="8">
+        <v>8</v>
+      </c>
+      <c r="CS8" s="8">
+        <v>15</v>
+      </c>
+      <c r="CT8" s="8">
+        <v>7</v>
+      </c>
+      <c r="CU8" s="8">
+        <v>8</v>
+      </c>
+      <c r="CV8" s="8">
+        <v>10</v>
+      </c>
+      <c r="CW8" s="8">
+        <v>14</v>
+      </c>
+      <c r="CX8" s="8">
+        <v>11</v>
+      </c>
+      <c r="CY8" s="8">
+        <v>10</v>
+      </c>
+      <c r="CZ8" s="8">
+        <v>12</v>
+      </c>
+      <c r="DA8" s="8">
+        <v>9</v>
+      </c>
+      <c r="DB8" s="8">
+        <v>10</v>
+      </c>
+      <c r="DC8" s="8">
+        <v>14</v>
+      </c>
+      <c r="DD8" s="8">
+        <v>9</v>
+      </c>
+      <c r="DE8" s="8">
+        <v>5</v>
+      </c>
+      <c r="DF8" s="8">
+        <v>5</v>
+      </c>
+      <c r="DG8" s="8">
+        <v>11</v>
+      </c>
+      <c r="DH8" s="8">
+        <v>8</v>
+      </c>
+      <c r="DI8" s="8">
+        <v>4</v>
+      </c>
+      <c r="DJ8" s="8">
+        <v>5</v>
+      </c>
+      <c r="DK8" s="8">
+        <v>4</v>
+      </c>
+      <c r="DL8" s="8">
+        <v>5</v>
+      </c>
+      <c r="DM8" s="8">
+        <v>6</v>
+      </c>
+      <c r="DN8" s="8">
+        <v>5</v>
+      </c>
+      <c r="DO8" s="8">
+        <v>3</v>
+      </c>
+      <c r="DP8" s="8">
+        <v>2</v>
+      </c>
+      <c r="DQ8" s="8">
+        <v>3</v>
+      </c>
+      <c r="DR8" s="8">
+        <v>4</v>
+      </c>
+      <c r="DS8" s="8">
+        <v>6</v>
+      </c>
+      <c r="DT8" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="7">
+        <v>3</v>
+      </c>
+      <c r="U9" s="7">
+        <v>2</v>
+      </c>
+      <c r="V9" s="8">
+        <v>13</v>
+      </c>
+      <c r="W9" s="8">
+        <v>11</v>
+      </c>
+      <c r="X9" s="8">
+        <v>19</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>18</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>8</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>19</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>18</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>9</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>19</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>21</v>
+      </c>
+      <c r="AI9" s="7">
+        <v>5</v>
+      </c>
+      <c r="AJ9" s="7">
+        <v>3</v>
+      </c>
+      <c r="AK9" s="7">
+        <v>4</v>
+      </c>
+      <c r="AL9" s="7">
+        <v>3</v>
+      </c>
+      <c r="AM9" s="7">
+        <v>9</v>
+      </c>
+      <c r="AN9" s="7">
+        <v>2</v>
+      </c>
+      <c r="AO9" s="8">
+        <v>12</v>
+      </c>
+      <c r="AP9" s="8">
+        <v>12</v>
+      </c>
+      <c r="AQ9" s="8">
+        <v>18</v>
+      </c>
+      <c r="AR9" s="8">
+        <v>19</v>
+      </c>
+      <c r="AS9" s="8">
+        <v>12</v>
+      </c>
+      <c r="AT9" s="8">
+        <v>8</v>
+      </c>
+      <c r="AU9" s="8">
+        <v>13</v>
+      </c>
+      <c r="AV9" s="8">
+        <v>10</v>
+      </c>
+      <c r="AW9" s="8">
+        <v>20</v>
+      </c>
+      <c r="AX9" s="8">
+        <v>15</v>
+      </c>
+      <c r="AY9" s="8">
+        <v>18</v>
+      </c>
+      <c r="AZ9" s="8">
+        <v>13</v>
+      </c>
+      <c r="BA9" s="8">
+        <v>13</v>
+      </c>
+      <c r="BB9" s="8">
+        <v>20</v>
+      </c>
+      <c r="BC9" s="8">
+        <v>19</v>
+      </c>
+      <c r="BD9" s="8">
+        <v>19</v>
+      </c>
+      <c r="BE9" s="8">
+        <v>8</v>
+      </c>
+      <c r="BF9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BG9" s="8">
+        <v>16</v>
+      </c>
+      <c r="BH9" s="8">
+        <v>13</v>
+      </c>
+      <c r="BI9" s="8">
+        <v>11</v>
+      </c>
+      <c r="BJ9" s="8">
+        <v>14</v>
+      </c>
+      <c r="BK9" s="8">
+        <v>18</v>
+      </c>
+      <c r="BL9" s="8">
+        <v>12</v>
+      </c>
+      <c r="BM9" s="8">
+        <v>22</v>
+      </c>
+      <c r="BN9" s="7">
+        <v>2</v>
+      </c>
+      <c r="BO9" s="8">
+        <v>5</v>
+      </c>
+      <c r="BP9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BQ9" s="8">
+        <v>5</v>
+      </c>
+      <c r="BR9" s="8">
+        <v>9</v>
+      </c>
+      <c r="BS9" s="8">
+        <v>6</v>
+      </c>
+      <c r="BT9" s="8">
+        <v>5</v>
+      </c>
+      <c r="BU9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BV9" s="8">
+        <v>6</v>
+      </c>
+      <c r="BW9" s="8">
+        <v>7</v>
+      </c>
+      <c r="BX9" s="8">
+        <v>12</v>
+      </c>
+      <c r="BY9" s="8">
+        <v>17</v>
+      </c>
+      <c r="BZ9" s="8">
+        <v>21</v>
+      </c>
+      <c r="CA9" s="7">
+        <v>11</v>
+      </c>
+      <c r="CB9" s="7">
+        <v>2</v>
+      </c>
+      <c r="CC9" s="8">
+        <v>16</v>
+      </c>
+      <c r="CD9" s="8">
+        <v>22</v>
+      </c>
+      <c r="CE9" s="7">
+        <v>4</v>
+      </c>
+      <c r="CF9" s="7">
+        <v>12</v>
+      </c>
+      <c r="CG9" s="7">
+        <v>12</v>
+      </c>
+      <c r="CH9" s="7">
+        <v>18</v>
+      </c>
+      <c r="CI9" s="7">
+        <v>1</v>
+      </c>
+      <c r="CJ9" s="8">
+        <v>6</v>
+      </c>
+      <c r="CK9" s="8">
+        <v>6</v>
+      </c>
+      <c r="CL9" s="8">
+        <v>14</v>
+      </c>
+      <c r="CM9" s="8">
+        <v>18</v>
+      </c>
+      <c r="CN9" s="7">
+        <v>1</v>
+      </c>
+      <c r="CO9" s="8">
+        <v>5</v>
+      </c>
+      <c r="CP9" s="8">
+        <v>11</v>
+      </c>
+      <c r="CQ9" s="8">
+        <v>14</v>
+      </c>
+      <c r="CR9" s="8">
+        <v>11</v>
+      </c>
+      <c r="CS9" s="8">
+        <v>14</v>
+      </c>
+      <c r="CT9" s="8">
+        <v>11</v>
+      </c>
+      <c r="CU9" s="8">
+        <v>11</v>
+      </c>
+      <c r="CV9" s="8">
+        <v>6</v>
+      </c>
+      <c r="CW9" s="8">
+        <v>4</v>
+      </c>
+      <c r="CX9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CY9" s="8">
+        <v>5</v>
+      </c>
+      <c r="CZ9" s="8">
+        <v>6</v>
+      </c>
+      <c r="DA9" s="8">
+        <v>6</v>
+      </c>
+      <c r="DB9" s="8">
+        <v>4</v>
+      </c>
+      <c r="DC9" s="8">
+        <v>2</v>
+      </c>
+      <c r="DD9" s="8">
+        <v>1</v>
+      </c>
+      <c r="DE9" s="8">
+        <v>1</v>
+      </c>
+      <c r="DF9" s="8">
+        <v>2</v>
+      </c>
+      <c r="DG9" s="8">
+        <v>2</v>
+      </c>
+      <c r="DH9" s="8">
+        <v>3</v>
+      </c>
+      <c r="DI9" s="8">
+        <v>1</v>
+      </c>
+      <c r="DJ9" s="8">
+        <v>2</v>
+      </c>
+      <c r="DK9" s="8">
+        <v>6</v>
+      </c>
+      <c r="DL9" s="8">
+        <v>3</v>
+      </c>
+      <c r="DM9" s="8">
+        <v>3</v>
+      </c>
+      <c r="DN9" s="8">
+        <v>1</v>
+      </c>
+      <c r="DO9" s="8">
+        <v>10</v>
+      </c>
+      <c r="DP9" s="8">
+        <v>1</v>
+      </c>
+      <c r="DQ9" s="8">
+        <v>5</v>
+      </c>
+      <c r="DR9" s="8">
+        <v>3</v>
+      </c>
+      <c r="DS9" s="8">
+        <v>4</v>
+      </c>
+      <c r="DT9" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7">
+        <v>4</v>
+      </c>
+      <c r="I10" s="7">
+        <v>10</v>
+      </c>
+      <c r="J10" s="7">
+        <v>5</v>
+      </c>
+      <c r="K10" s="7">
+        <v>5</v>
+      </c>
+      <c r="L10" s="7">
+        <v>2</v>
+      </c>
+      <c r="M10" s="8">
+        <v>13</v>
+      </c>
+      <c r="N10" s="8">
+        <v>5</v>
+      </c>
+      <c r="O10" s="8">
+        <v>6</v>
+      </c>
+      <c r="P10" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>14</v>
+      </c>
+      <c r="R10" s="8">
+        <v>4</v>
+      </c>
+      <c r="S10" s="8">
+        <v>1</v>
+      </c>
+      <c r="T10" s="8">
+        <v>4</v>
+      </c>
+      <c r="U10" s="8">
+        <v>1</v>
+      </c>
+      <c r="V10" s="8">
+        <v>4</v>
+      </c>
+      <c r="W10" s="8">
+        <v>1</v>
+      </c>
+      <c r="X10" s="8">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>14</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>11</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>15</v>
+      </c>
+      <c r="AD10" s="8">
+        <v>8</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>9</v>
+      </c>
+      <c r="AI10" s="8">
+        <v>6</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>10</v>
+      </c>
+      <c r="AK10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="8">
+        <v>9</v>
+      </c>
+      <c r="AM10" s="8">
+        <v>10</v>
+      </c>
+      <c r="AN10" s="8">
+        <v>19</v>
+      </c>
+      <c r="AO10" s="8">
+        <v>17</v>
+      </c>
+      <c r="AP10" s="8">
+        <v>11</v>
+      </c>
+      <c r="AQ10" s="8">
+        <v>5</v>
+      </c>
+      <c r="AR10" s="8">
+        <v>21</v>
+      </c>
+      <c r="AS10" s="7">
+        <v>6</v>
+      </c>
+      <c r="AT10" s="7">
+        <v>8</v>
+      </c>
+      <c r="AU10" s="7">
+        <v>4</v>
+      </c>
+      <c r="AV10" s="7">
+        <v>19</v>
+      </c>
+      <c r="AW10" s="7">
+        <v>9</v>
+      </c>
+      <c r="AX10" s="7">
+        <v>5</v>
+      </c>
+      <c r="AY10" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BA10" s="8">
+        <v>5</v>
+      </c>
+      <c r="BB10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BC10" s="8">
+        <v>8</v>
+      </c>
+      <c r="BD10" s="8">
+        <v>16</v>
+      </c>
+      <c r="BE10" s="8">
+        <v>15</v>
+      </c>
+      <c r="BF10" s="8">
+        <v>8</v>
+      </c>
+      <c r="BG10" s="8">
+        <v>11</v>
+      </c>
+      <c r="BH10" s="8">
+        <v>17</v>
+      </c>
+      <c r="BI10" s="8">
+        <v>19</v>
+      </c>
+      <c r="BJ10" s="8">
+        <v>11</v>
+      </c>
+      <c r="BK10" s="8">
+        <v>8</v>
+      </c>
+      <c r="BL10" s="8">
+        <v>21</v>
+      </c>
+      <c r="BM10" s="7">
+        <v>11</v>
+      </c>
+      <c r="BN10" s="7">
+        <v>7</v>
+      </c>
+      <c r="BO10" s="7">
+        <v>8</v>
+      </c>
+      <c r="BP10" s="7">
+        <v>1</v>
+      </c>
+      <c r="BQ10" s="8">
+        <v>15</v>
+      </c>
+      <c r="BR10" s="8">
+        <v>20</v>
+      </c>
+      <c r="BS10" s="8">
+        <v>10</v>
+      </c>
+      <c r="BT10" s="8">
+        <v>9</v>
+      </c>
+      <c r="BU10" s="8">
+        <v>7</v>
+      </c>
+      <c r="BV10" s="8">
+        <v>12</v>
+      </c>
+      <c r="BW10" s="8">
+        <v>11</v>
+      </c>
+      <c r="BX10" s="8">
+        <v>9</v>
+      </c>
+      <c r="BY10" s="8">
+        <v>15</v>
+      </c>
+      <c r="BZ10" s="8">
+        <v>15</v>
+      </c>
+      <c r="CA10" s="8">
+        <v>15</v>
+      </c>
+      <c r="CB10" s="8">
+        <v>5</v>
+      </c>
+      <c r="CC10" s="8">
+        <v>21</v>
+      </c>
+      <c r="CD10" s="7">
+        <v>8</v>
+      </c>
+      <c r="CE10" s="7">
+        <v>9</v>
+      </c>
+      <c r="CF10" s="7">
+        <v>11</v>
+      </c>
+      <c r="CG10" s="7">
+        <v>9</v>
+      </c>
+      <c r="CH10" s="7">
+        <v>5</v>
+      </c>
+      <c r="CI10" s="7">
+        <v>3</v>
+      </c>
+      <c r="CJ10" s="8">
+        <v>14</v>
+      </c>
+      <c r="CK10" s="8">
+        <v>11</v>
+      </c>
+      <c r="CL10" s="8">
+        <v>17</v>
+      </c>
+      <c r="CM10" s="8">
+        <v>8</v>
+      </c>
+      <c r="CN10" s="8">
+        <v>20</v>
+      </c>
+      <c r="CO10" s="7">
+        <v>3</v>
+      </c>
+      <c r="CP10" s="7">
+        <v>11</v>
+      </c>
+      <c r="CQ10" s="7">
+        <v>20</v>
+      </c>
+      <c r="CR10" s="7">
+        <v>1</v>
+      </c>
+      <c r="CS10" s="8">
+        <v>3</v>
+      </c>
+      <c r="CT10" s="8">
+        <v>6</v>
+      </c>
+      <c r="CU10" s="8">
+        <v>2</v>
+      </c>
+      <c r="CV10" s="8">
+        <v>2</v>
+      </c>
+      <c r="CW10" s="8">
+        <v>13</v>
+      </c>
+      <c r="CX10" s="8">
+        <v>13</v>
+      </c>
+      <c r="CY10" s="8">
+        <v>11</v>
+      </c>
+      <c r="CZ10" s="8">
+        <v>11</v>
+      </c>
+      <c r="DA10" s="8">
+        <v>4</v>
+      </c>
+      <c r="DB10" s="8">
+        <v>3</v>
+      </c>
+      <c r="DC10" s="8">
+        <v>5</v>
+      </c>
+      <c r="DD10" s="8">
+        <v>14</v>
+      </c>
+      <c r="DE10" s="8">
+        <v>7</v>
+      </c>
+      <c r="DF10" s="8">
+        <v>13</v>
+      </c>
+      <c r="DG10" s="8">
+        <v>12</v>
+      </c>
+      <c r="DH10" s="8">
+        <v>18</v>
+      </c>
+      <c r="DI10" s="7">
+        <v>1</v>
+      </c>
+      <c r="DJ10" s="8">
+        <v>12</v>
+      </c>
+      <c r="DK10" s="8">
+        <v>5</v>
+      </c>
+      <c r="DL10" s="8">
+        <v>16</v>
+      </c>
+      <c r="DM10" s="8">
+        <v>10</v>
+      </c>
+      <c r="DN10" s="8">
+        <v>15</v>
+      </c>
+      <c r="DO10" s="8">
+        <v>18</v>
+      </c>
+      <c r="DP10" s="7">
+        <v>1</v>
+      </c>
+      <c r="DQ10" s="8">
+        <v>10</v>
+      </c>
+      <c r="DR10" s="8">
+        <v>13</v>
+      </c>
+      <c r="DS10" s="8">
+        <v>13</v>
+      </c>
+      <c r="DT10" s="8">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>7</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8">
+        <v>2</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>5</v>
+      </c>
+      <c r="K11" s="8">
+        <v>15</v>
+      </c>
+      <c r="L11" s="8">
+        <v>2</v>
+      </c>
+      <c r="M11" s="8">
+        <v>7</v>
+      </c>
+      <c r="N11" s="8">
+        <v>3</v>
+      </c>
+      <c r="O11" s="8">
+        <v>2</v>
+      </c>
+      <c r="P11" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>3</v>
+      </c>
+      <c r="R11" s="8">
+        <v>6</v>
+      </c>
+      <c r="S11" s="8">
+        <v>5</v>
+      </c>
+      <c r="T11" s="8">
+        <v>14</v>
+      </c>
+      <c r="U11" s="8">
+        <v>10</v>
+      </c>
+      <c r="V11" s="8">
+        <v>16</v>
+      </c>
+      <c r="W11" s="8">
+        <v>3</v>
+      </c>
+      <c r="X11" s="8">
+        <v>8</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>8</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>8</v>
+      </c>
+      <c r="AD11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AE11" s="8">
+        <v>12</v>
+      </c>
+      <c r="AF11" s="8">
+        <v>12</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="8">
+        <v>3</v>
+      </c>
+      <c r="AI11" s="8">
+        <v>7</v>
+      </c>
+      <c r="AJ11" s="8">
+        <v>3</v>
+      </c>
+      <c r="AK11" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL11" s="8">
+        <v>15</v>
+      </c>
+      <c r="AM11" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN11" s="8">
+        <v>9</v>
+      </c>
+      <c r="AO11" s="8">
+        <v>11</v>
+      </c>
+      <c r="AP11" s="8">
+        <v>13</v>
+      </c>
+      <c r="AQ11" s="8">
+        <v>12</v>
+      </c>
+      <c r="AR11" s="8">
+        <v>6</v>
+      </c>
+      <c r="AS11" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="8">
+        <v>8</v>
+      </c>
+      <c r="AV11" s="8">
+        <v>8</v>
+      </c>
+      <c r="AW11" s="8">
+        <v>16</v>
+      </c>
+      <c r="AX11" s="8">
+        <v>9</v>
+      </c>
+      <c r="AY11" s="8">
+        <v>20</v>
+      </c>
+      <c r="AZ11" s="8">
+        <v>8</v>
+      </c>
+      <c r="BA11" s="8">
+        <v>3</v>
+      </c>
+      <c r="BB11" s="8">
+        <v>12</v>
+      </c>
+      <c r="BC11" s="8">
+        <v>12</v>
+      </c>
+      <c r="BD11" s="8">
+        <v>9</v>
+      </c>
+      <c r="BE11" s="8">
+        <v>18</v>
+      </c>
+      <c r="BF11" s="8">
+        <v>4</v>
+      </c>
+      <c r="BG11" s="8">
+        <v>9</v>
+      </c>
+      <c r="BH11" s="8">
+        <v>20</v>
+      </c>
+      <c r="BI11" s="8">
+        <v>21</v>
+      </c>
+      <c r="BJ11" s="7">
+        <v>15</v>
+      </c>
+      <c r="BK11" s="7">
+        <v>16</v>
+      </c>
+      <c r="BL11" s="7">
+        <v>6</v>
+      </c>
+      <c r="BM11" s="7">
+        <v>3</v>
+      </c>
+      <c r="BN11" s="7">
+        <v>3</v>
+      </c>
+      <c r="BO11" s="7">
+        <v>2</v>
+      </c>
+      <c r="BP11" s="8">
+        <v>15</v>
+      </c>
+      <c r="BQ11" s="8">
+        <v>19</v>
+      </c>
+      <c r="BR11" s="8">
+        <v>17</v>
+      </c>
+      <c r="BS11" s="8">
+        <v>15</v>
+      </c>
+      <c r="BT11" s="8">
+        <v>17</v>
+      </c>
+      <c r="BU11" s="8">
+        <v>21</v>
+      </c>
+      <c r="BV11" s="7">
+        <v>13</v>
+      </c>
+      <c r="BW11" s="7">
+        <v>5</v>
+      </c>
+      <c r="BX11" s="7">
+        <v>6</v>
+      </c>
+      <c r="BY11" s="7">
+        <v>6</v>
+      </c>
+      <c r="BZ11" s="7">
+        <v>4</v>
+      </c>
+      <c r="CA11" s="7">
+        <v>1</v>
+      </c>
+      <c r="CB11" s="8">
+        <v>20</v>
+      </c>
+      <c r="CC11" s="7">
+        <v>6</v>
+      </c>
+      <c r="CD11" s="7">
+        <v>4</v>
+      </c>
+      <c r="CE11" s="7">
+        <v>2</v>
+      </c>
+      <c r="CF11" s="8">
+        <v>17</v>
+      </c>
+      <c r="CG11" s="8">
+        <v>19</v>
+      </c>
+      <c r="CH11" s="8">
+        <v>16</v>
+      </c>
+      <c r="CI11" s="8">
+        <v>13</v>
+      </c>
+      <c r="CJ11" s="8">
+        <v>21</v>
+      </c>
+      <c r="CK11" s="7">
+        <v>18</v>
+      </c>
+      <c r="CL11" s="7">
+        <v>20</v>
+      </c>
+      <c r="CM11" s="9">
+        <v>1</v>
+      </c>
+      <c r="CN11" s="7">
+        <v>11</v>
+      </c>
+      <c r="CO11" s="7">
+        <v>6</v>
+      </c>
+      <c r="CP11" s="8">
+        <v>19</v>
+      </c>
+      <c r="CQ11" s="7">
+        <v>18</v>
+      </c>
+      <c r="CR11" s="7">
+        <v>21</v>
+      </c>
+      <c r="CS11" s="7">
+        <v>12</v>
+      </c>
+      <c r="CT11" s="7">
+        <v>20</v>
+      </c>
+      <c r="CU11" s="7">
+        <v>1</v>
+      </c>
+      <c r="CV11" s="8">
+        <v>18</v>
+      </c>
+      <c r="CW11" s="7">
+        <v>3</v>
+      </c>
+      <c r="CX11" s="7">
+        <v>1</v>
+      </c>
+      <c r="CY11" s="8">
+        <v>7</v>
+      </c>
+      <c r="CZ11" s="8">
+        <v>7</v>
+      </c>
+      <c r="DA11" s="8">
+        <v>17</v>
+      </c>
+      <c r="DB11" s="8">
+        <v>20</v>
+      </c>
+      <c r="DC11" s="7">
+        <v>3</v>
+      </c>
+      <c r="DD11" s="7">
+        <v>1</v>
+      </c>
+      <c r="DE11" s="8">
+        <v>20</v>
+      </c>
+      <c r="DF11" s="7">
+        <v>1</v>
+      </c>
+      <c r="DG11" s="8">
+        <v>15</v>
+      </c>
+      <c r="DH11" s="8">
+        <v>16</v>
+      </c>
+      <c r="DI11" s="8">
+        <v>13</v>
+      </c>
+      <c r="DJ11" s="8">
+        <v>10</v>
+      </c>
+      <c r="DK11" s="8">
+        <v>13</v>
+      </c>
+      <c r="DL11" s="8">
+        <v>17</v>
+      </c>
+      <c r="DM11" s="8">
+        <v>14</v>
+      </c>
+      <c r="DN11" s="8">
+        <v>16</v>
+      </c>
+      <c r="DO11" s="8">
+        <v>17</v>
+      </c>
+      <c r="DP11" s="8">
+        <v>20</v>
+      </c>
+      <c r="DQ11" s="7">
+        <v>24</v>
+      </c>
+      <c r="DR11" s="9">
+        <v>5</v>
+      </c>
+      <c r="DS11" s="9">
+        <v>8</v>
+      </c>
+      <c r="DT11" s="9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/England/Premier League/Ligenhistorie.xlsx
+++ b/England/Premier League/Ligenhistorie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Desktop\footballstats\footballstats\England\Premier League\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBCDD78-8D61-4944-8722-C0A22A3C1924}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34821250-B6B0-4573-A2AB-31391985CF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1800" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="2490" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="106">
   <si>
     <t>Vereine</t>
   </si>
@@ -337,6 +337,12 @@
   </si>
   <si>
     <t>Sunderland AFC</t>
+  </si>
+  <si>
+    <t>West Bromwich Albion</t>
+  </si>
+  <si>
+    <t>Blackburn Rovers</t>
   </si>
 </sst>
 </file>
@@ -406,7 +412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -414,11 +420,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -441,6 +462,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -723,22 +747,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DT11"/>
+  <dimension ref="A1:DT13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DD1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="DT10" sqref="DT10"/>
+      <selection pane="bottomLeft" activeCell="AX13" sqref="AX13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="124" width="4.7109375" style="1" customWidth="1"/>
     <col min="125" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:124" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:124" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1142,7 +1166,7 @@
       <c r="N2" s="8">
         <v>10</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="10">
         <v>1</v>
       </c>
       <c r="P2" s="8">
@@ -1157,7 +1181,7 @@
       <c r="S2" s="7">
         <v>1</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="10">
         <v>1</v>
       </c>
       <c r="U2" s="8">
@@ -1193,10 +1217,10 @@
       <c r="AE2" s="8">
         <v>4</v>
       </c>
-      <c r="AF2" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="8">
+      <c r="AF2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="10">
         <v>1</v>
       </c>
       <c r="AH2" s="8">
@@ -1247,7 +1271,7 @@
       <c r="AW2" s="8">
         <v>11</v>
       </c>
-      <c r="AX2" s="8">
+      <c r="AX2" s="10">
         <v>1</v>
       </c>
       <c r="AY2" s="8">
@@ -1298,13 +1322,13 @@
       <c r="BN2" s="8">
         <v>8</v>
       </c>
-      <c r="BO2" s="8">
+      <c r="BO2" s="10">
         <v>1</v>
       </c>
       <c r="BP2" s="8">
         <v>7</v>
       </c>
-      <c r="BQ2" s="8">
+      <c r="BQ2" s="10">
         <v>1</v>
       </c>
       <c r="BR2" s="8">
@@ -1325,7 +1349,7 @@
       <c r="BW2" s="8">
         <v>3</v>
       </c>
-      <c r="BX2" s="8">
+      <c r="BX2" s="10">
         <v>1</v>
       </c>
       <c r="BY2" s="8">
@@ -1334,49 +1358,49 @@
       <c r="BZ2" s="8">
         <v>3</v>
       </c>
-      <c r="CA2" s="8">
-        <v>1</v>
-      </c>
-      <c r="CB2" s="8">
+      <c r="CA2" s="10">
+        <v>1</v>
+      </c>
+      <c r="CB2" s="10">
         <v>1</v>
       </c>
       <c r="CC2" s="8">
         <v>2</v>
       </c>
-      <c r="CD2" s="8">
-        <v>1</v>
-      </c>
-      <c r="CE2" s="8">
+      <c r="CD2" s="10">
+        <v>1</v>
+      </c>
+      <c r="CE2" s="10">
         <v>1</v>
       </c>
       <c r="CF2" s="8">
         <v>5</v>
       </c>
-      <c r="CG2" s="8">
-        <v>1</v>
-      </c>
-      <c r="CH2" s="8">
-        <v>1</v>
-      </c>
-      <c r="CI2" s="8">
+      <c r="CG2" s="10">
+        <v>1</v>
+      </c>
+      <c r="CH2" s="10">
+        <v>1</v>
+      </c>
+      <c r="CI2" s="10">
         <v>1</v>
       </c>
       <c r="CJ2" s="8">
         <v>2</v>
       </c>
-      <c r="CK2" s="8">
+      <c r="CK2" s="10">
         <v>1</v>
       </c>
       <c r="CL2" s="8">
         <v>2</v>
       </c>
-      <c r="CM2" s="8">
+      <c r="CM2" s="10">
         <v>1</v>
       </c>
       <c r="CN2" s="8">
         <v>2</v>
       </c>
-      <c r="CO2" s="8">
+      <c r="CO2" s="10">
         <v>1</v>
       </c>
       <c r="CP2" s="8">
@@ -1466,14 +1490,14 @@
       <c r="DR2" s="8">
         <v>2</v>
       </c>
-      <c r="DS2" s="8">
+      <c r="DS2" s="10">
         <v>1</v>
       </c>
       <c r="DT2" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1584,19 +1608,19 @@
       <c r="AN3" s="8">
         <v>14</v>
       </c>
-      <c r="AO3" s="8">
+      <c r="AO3" s="10">
         <v>1</v>
       </c>
       <c r="AP3" s="8">
         <v>2</v>
       </c>
-      <c r="AQ3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="8">
+      <c r="AQ3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="10">
         <v>1</v>
       </c>
       <c r="AT3" s="8">
@@ -1605,7 +1629,7 @@
       <c r="AU3" s="8">
         <v>3</v>
       </c>
-      <c r="AV3" s="8">
+      <c r="AV3" s="10">
         <v>1</v>
       </c>
       <c r="AW3" s="8">
@@ -1614,7 +1638,7 @@
       <c r="AX3" s="8">
         <v>13</v>
       </c>
-      <c r="AY3" s="8">
+      <c r="AY3" s="10">
         <v>1</v>
       </c>
       <c r="AZ3" s="8">
@@ -1629,7 +1653,7 @@
       <c r="BC3" s="8">
         <v>3</v>
       </c>
-      <c r="BD3" s="8">
+      <c r="BD3" s="10">
         <v>1</v>
       </c>
       <c r="BE3" s="8">
@@ -1683,7 +1707,7 @@
       <c r="BU3" s="8">
         <v>12</v>
       </c>
-      <c r="BV3" s="8">
+      <c r="BV3" s="10">
         <v>1</v>
       </c>
       <c r="BW3" s="8">
@@ -1737,13 +1761,13 @@
       <c r="CM3" s="8">
         <v>6</v>
       </c>
-      <c r="CN3" s="8">
+      <c r="CN3" s="10">
         <v>1</v>
       </c>
       <c r="CO3" s="8">
         <v>4</v>
       </c>
-      <c r="CP3" s="8">
+      <c r="CP3" s="10">
         <v>1</v>
       </c>
       <c r="CQ3" s="8">
@@ -1764,7 +1788,7 @@
       <c r="CV3" s="8">
         <v>3</v>
       </c>
-      <c r="CW3" s="8">
+      <c r="CW3" s="10">
         <v>1</v>
       </c>
       <c r="CX3" s="8">
@@ -1776,13 +1800,13 @@
       <c r="CZ3" s="8">
         <v>2</v>
       </c>
-      <c r="DA3" s="8">
+      <c r="DA3" s="10">
         <v>1</v>
       </c>
       <c r="DB3" s="8">
         <v>2</v>
       </c>
-      <c r="DC3" s="8">
+      <c r="DC3" s="10">
         <v>1</v>
       </c>
       <c r="DD3" s="8">
@@ -1837,7 +1861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1850,7 +1874,7 @@
       <c r="D4" s="8">
         <v>2</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="10">
         <v>1</v>
       </c>
       <c r="F4" s="8">
@@ -1922,7 +1946,7 @@
       <c r="AB4" s="8">
         <v>15</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC4" s="10">
         <v>1</v>
       </c>
       <c r="AD4" s="8">
@@ -1949,7 +1973,7 @@
       <c r="AK4" s="8">
         <v>20</v>
       </c>
-      <c r="AL4" s="8">
+      <c r="AL4" s="10">
         <v>1</v>
       </c>
       <c r="AM4" s="8">
@@ -1961,7 +1985,7 @@
       <c r="AO4" s="7">
         <v>1</v>
       </c>
-      <c r="AP4" s="8">
+      <c r="AP4" s="10">
         <v>1</v>
       </c>
       <c r="AQ4" s="8">
@@ -1982,7 +2006,7 @@
       <c r="AV4" s="8">
         <v>14</v>
       </c>
-      <c r="AW4" s="8">
+      <c r="AW4" s="10">
         <v>1</v>
       </c>
       <c r="AX4" s="8">
@@ -2033,7 +2057,7 @@
       <c r="BM4" s="8">
         <v>4</v>
       </c>
-      <c r="BN4" s="8">
+      <c r="BN4" s="10">
         <v>1</v>
       </c>
       <c r="BO4" s="8">
@@ -2054,7 +2078,7 @@
       <c r="BT4" s="8">
         <v>3</v>
       </c>
-      <c r="BU4" s="8">
+      <c r="BU4" s="10">
         <v>1</v>
       </c>
       <c r="BV4" s="8">
@@ -2099,13 +2123,13 @@
       <c r="CI4" s="8">
         <v>7</v>
       </c>
-      <c r="CJ4" s="8">
+      <c r="CJ4" s="10">
         <v>1</v>
       </c>
       <c r="CK4" s="8">
         <v>2</v>
       </c>
-      <c r="CL4" s="8">
+      <c r="CL4" s="10">
         <v>1</v>
       </c>
       <c r="CM4" s="8">
@@ -2211,7 +2235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2267,7 +2291,7 @@
       <c r="U5" s="8">
         <v>8</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="10">
         <v>1</v>
       </c>
       <c r="W5" s="8">
@@ -2276,7 +2300,7 @@
       <c r="X5" s="8">
         <v>5</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="10">
         <v>1</v>
       </c>
       <c r="Z5" s="8">
@@ -2366,7 +2390,7 @@
       <c r="BB5" s="8">
         <v>2</v>
       </c>
-      <c r="BC5" s="8">
+      <c r="BC5" s="10">
         <v>1</v>
       </c>
       <c r="BD5" s="8">
@@ -2378,10 +2402,10 @@
       <c r="BF5" s="8">
         <v>5</v>
       </c>
-      <c r="BG5" s="8">
-        <v>1</v>
-      </c>
-      <c r="BH5" s="8">
+      <c r="BG5" s="10">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="10">
         <v>1</v>
       </c>
       <c r="BI5" s="8">
@@ -2405,13 +2429,13 @@
       <c r="BO5" s="8">
         <v>2</v>
       </c>
-      <c r="BP5" s="8">
+      <c r="BP5" s="10">
         <v>1</v>
       </c>
       <c r="BQ5" s="8">
         <v>4</v>
       </c>
-      <c r="BR5" s="8">
+      <c r="BR5" s="10">
         <v>1</v>
       </c>
       <c r="BS5" s="8">
@@ -2489,37 +2513,37 @@
       <c r="CQ5" s="8">
         <v>2</v>
       </c>
-      <c r="CR5" s="8">
-        <v>1</v>
-      </c>
-      <c r="CS5" s="8">
+      <c r="CR5" s="10">
+        <v>1</v>
+      </c>
+      <c r="CS5" s="10">
         <v>1</v>
       </c>
       <c r="CT5" s="8">
         <v>2</v>
       </c>
-      <c r="CU5" s="8">
-        <v>1</v>
-      </c>
-      <c r="CV5" s="8">
+      <c r="CU5" s="10">
+        <v>1</v>
+      </c>
+      <c r="CV5" s="10">
         <v>1</v>
       </c>
       <c r="CW5" s="8">
         <v>2</v>
       </c>
-      <c r="CX5" s="8">
-        <v>1</v>
-      </c>
-      <c r="CY5" s="8">
-        <v>1</v>
-      </c>
-      <c r="CZ5" s="8">
+      <c r="CX5" s="10">
+        <v>1</v>
+      </c>
+      <c r="CY5" s="10">
+        <v>1</v>
+      </c>
+      <c r="CZ5" s="10">
         <v>1</v>
       </c>
       <c r="DA5" s="8">
         <v>3</v>
       </c>
-      <c r="DB5" s="8">
+      <c r="DB5" s="10">
         <v>1</v>
       </c>
       <c r="DC5" s="8">
@@ -2531,25 +2555,25 @@
       <c r="DE5" s="8">
         <v>2</v>
       </c>
-      <c r="DF5" s="8">
-        <v>1</v>
-      </c>
-      <c r="DG5" s="8">
-        <v>1</v>
-      </c>
-      <c r="DH5" s="8">
+      <c r="DF5" s="10">
+        <v>1</v>
+      </c>
+      <c r="DG5" s="10">
+        <v>1</v>
+      </c>
+      <c r="DH5" s="10">
         <v>1</v>
       </c>
       <c r="DI5" s="8">
         <v>2</v>
       </c>
-      <c r="DJ5" s="8">
+      <c r="DJ5" s="10">
         <v>1</v>
       </c>
       <c r="DK5" s="8">
         <v>2</v>
       </c>
-      <c r="DL5" s="8">
+      <c r="DL5" s="10">
         <v>1</v>
       </c>
       <c r="DM5" s="8">
@@ -2577,7 +2601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2599,25 +2623,25 @@
       <c r="G6" s="8">
         <v>4</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="10">
         <v>1</v>
       </c>
       <c r="I6" s="8">
         <v>3</v>
       </c>
-      <c r="J6" s="8">
-        <v>1</v>
-      </c>
-      <c r="K6" s="8">
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10">
         <v>1</v>
       </c>
       <c r="L6" s="8">
         <v>6</v>
       </c>
-      <c r="M6" s="8">
-        <v>1</v>
-      </c>
-      <c r="N6" s="8">
+      <c r="M6" s="10">
+        <v>1</v>
+      </c>
+      <c r="N6" s="10">
         <v>1</v>
       </c>
       <c r="O6" s="8">
@@ -2647,7 +2671,7 @@
       <c r="W6" s="8">
         <v>7</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="10">
         <v>1</v>
       </c>
       <c r="Y6" s="8">
@@ -2827,7 +2851,7 @@
       <c r="CE6" s="8">
         <v>7</v>
       </c>
-      <c r="CF6" s="8">
+      <c r="CF6" s="10">
         <v>1</v>
       </c>
       <c r="CG6" s="8">
@@ -2951,7 +2975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3082,7 +3106,7 @@
       <c r="AT7" s="8">
         <v>9</v>
       </c>
-      <c r="AU7" s="8">
+      <c r="AU7" s="10">
         <v>1</v>
       </c>
       <c r="AV7" s="8">
@@ -3154,7 +3178,7 @@
       <c r="BR7" s="8">
         <v>15</v>
       </c>
-      <c r="BS7" s="8">
+      <c r="BS7" s="10">
         <v>1</v>
       </c>
       <c r="BT7" s="8">
@@ -3286,13 +3310,13 @@
       <c r="DJ7" s="8">
         <v>3</v>
       </c>
-      <c r="DK7" s="8">
+      <c r="DK7" s="10">
         <v>1</v>
       </c>
       <c r="DL7" s="8">
         <v>2</v>
       </c>
-      <c r="DM7" s="8">
+      <c r="DM7" s="10">
         <v>1</v>
       </c>
       <c r="DN7" s="8">
@@ -3304,20 +3328,20 @@
       <c r="DP7" s="8">
         <v>3</v>
       </c>
-      <c r="DQ7" s="8">
-        <v>1</v>
-      </c>
-      <c r="DR7" s="8">
+      <c r="DQ7" s="10">
+        <v>1</v>
+      </c>
+      <c r="DR7" s="10">
         <v>1</v>
       </c>
       <c r="DS7" s="8">
         <v>2</v>
       </c>
-      <c r="DT7" s="8">
+      <c r="DT7" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3437,7 +3461,7 @@
       <c r="BA8" s="7">
         <v>1</v>
       </c>
-      <c r="BB8" s="8">
+      <c r="BB8" s="10">
         <v>1</v>
       </c>
       <c r="BC8" s="8">
@@ -3467,7 +3491,7 @@
       <c r="BK8" s="8">
         <v>3</v>
       </c>
-      <c r="BL8" s="8">
+      <c r="BL8" s="10">
         <v>1</v>
       </c>
       <c r="BM8" s="8">
@@ -3651,7 +3675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3789,7 +3813,7 @@
       <c r="BE9" s="8">
         <v>8</v>
       </c>
-      <c r="BF9" s="8">
+      <c r="BF9" s="10">
         <v>1</v>
       </c>
       <c r="BG9" s="8">
@@ -3939,10 +3963,10 @@
       <c r="DC9" s="8">
         <v>2</v>
       </c>
-      <c r="DD9" s="8">
-        <v>1</v>
-      </c>
-      <c r="DE9" s="8">
+      <c r="DD9" s="10">
+        <v>1</v>
+      </c>
+      <c r="DE9" s="10">
         <v>1</v>
       </c>
       <c r="DF9" s="8">
@@ -3954,7 +3978,7 @@
       <c r="DH9" s="8">
         <v>3</v>
       </c>
-      <c r="DI9" s="8">
+      <c r="DI9" s="10">
         <v>1</v>
       </c>
       <c r="DJ9" s="8">
@@ -3969,13 +3993,13 @@
       <c r="DM9" s="8">
         <v>3</v>
       </c>
-      <c r="DN9" s="8">
+      <c r="DN9" s="10">
         <v>1</v>
       </c>
       <c r="DO9" s="8">
         <v>10</v>
       </c>
-      <c r="DP9" s="8">
+      <c r="DP9" s="10">
         <v>1</v>
       </c>
       <c r="DQ9" s="8">
@@ -3991,7 +4015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4036,19 +4060,19 @@
       <c r="R10" s="8">
         <v>4</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="10">
         <v>1</v>
       </c>
       <c r="T10" s="8">
         <v>4</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="10">
         <v>1</v>
       </c>
       <c r="V10" s="8">
         <v>4</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10" s="10">
         <v>1</v>
       </c>
       <c r="X10" s="8">
@@ -4090,7 +4114,7 @@
       <c r="AJ10" s="8">
         <v>10</v>
       </c>
-      <c r="AK10" s="8">
+      <c r="AK10" s="10">
         <v>1</v>
       </c>
       <c r="AL10" s="8">
@@ -4355,7 +4379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4367,16 +4391,16 @@
       <c r="E11" s="8">
         <v>7</v>
       </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
         <v>1</v>
       </c>
       <c r="H11" s="8">
         <v>2</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="10">
         <v>1</v>
       </c>
       <c r="J11" s="8">
@@ -4397,7 +4421,7 @@
       <c r="O11" s="8">
         <v>2</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="10">
         <v>1</v>
       </c>
       <c r="Q11" s="8">
@@ -4430,7 +4454,7 @@
       <c r="Z11" s="8">
         <v>8</v>
       </c>
-      <c r="AA11" s="8">
+      <c r="AA11" s="10">
         <v>1</v>
       </c>
       <c r="AB11" s="8">
@@ -4487,7 +4511,7 @@
       <c r="AS11" s="8">
         <v>2</v>
       </c>
-      <c r="AT11" s="8">
+      <c r="AT11" s="10">
         <v>1</v>
       </c>
       <c r="AU11" s="8">
@@ -4723,6 +4747,520 @@
       </c>
       <c r="DT11" s="9">
         <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="8">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8">
+        <v>5</v>
+      </c>
+      <c r="E12" s="8">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8">
+        <v>12</v>
+      </c>
+      <c r="G12" s="8">
+        <v>8</v>
+      </c>
+      <c r="H12" s="8">
+        <v>8</v>
+      </c>
+      <c r="I12" s="8">
+        <v>13</v>
+      </c>
+      <c r="J12" s="8">
+        <v>16</v>
+      </c>
+      <c r="K12" s="8">
+        <v>12</v>
+      </c>
+      <c r="L12" s="8">
+        <v>7</v>
+      </c>
+      <c r="M12" s="8">
+        <v>14</v>
+      </c>
+      <c r="N12" s="8">
+        <v>13</v>
+      </c>
+      <c r="O12" s="8">
+        <v>16</v>
+      </c>
+      <c r="P12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>7</v>
+      </c>
+      <c r="R12" s="8">
+        <v>18</v>
+      </c>
+      <c r="S12" s="7">
+        <v>10</v>
+      </c>
+      <c r="T12" s="7">
+        <v>4</v>
+      </c>
+      <c r="U12" s="7">
+        <v>4</v>
+      </c>
+      <c r="V12" s="7">
+        <v>5</v>
+      </c>
+      <c r="W12" s="7">
+        <v>3</v>
+      </c>
+      <c r="X12" s="7">
+        <v>11</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>9</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>10</v>
+      </c>
+      <c r="AD12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>14</v>
+      </c>
+      <c r="AF12" s="8">
+        <v>13</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>7</v>
+      </c>
+      <c r="AH12" s="8">
+        <v>16</v>
+      </c>
+      <c r="AI12" s="8">
+        <v>2</v>
+      </c>
+      <c r="AJ12" s="8">
+        <v>13</v>
+      </c>
+      <c r="AK12" s="8">
+        <v>22</v>
+      </c>
+      <c r="AL12" s="7">
+        <v>8</v>
+      </c>
+      <c r="AM12" s="7">
+        <v>7</v>
+      </c>
+      <c r="AN12" s="7">
+        <v>6</v>
+      </c>
+      <c r="AO12" s="7">
+        <v>2</v>
+      </c>
+      <c r="AP12" s="8">
+        <v>6</v>
+      </c>
+      <c r="AQ12" s="8">
+        <v>4</v>
+      </c>
+      <c r="AR12" s="8">
+        <v>7</v>
+      </c>
+      <c r="AS12" s="8">
+        <v>9</v>
+      </c>
+      <c r="AT12" s="8">
+        <v>18</v>
+      </c>
+      <c r="AU12" s="8">
+        <v>16</v>
+      </c>
+      <c r="AV12" s="8">
+        <v>22</v>
+      </c>
+      <c r="AW12" s="7">
+        <v>10</v>
+      </c>
+      <c r="AX12" s="7">
+        <v>7</v>
+      </c>
+      <c r="AY12" s="7">
+        <v>7</v>
+      </c>
+      <c r="AZ12" s="7">
+        <v>2</v>
+      </c>
+      <c r="BA12" s="8">
+        <v>14</v>
+      </c>
+      <c r="BB12" s="8">
+        <v>16</v>
+      </c>
+      <c r="BC12" s="8">
+        <v>13</v>
+      </c>
+      <c r="BD12" s="8">
+        <v>4</v>
+      </c>
+      <c r="BE12" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF12" s="8">
+        <v>17</v>
+      </c>
+      <c r="BG12" s="8">
+        <v>13</v>
+      </c>
+      <c r="BH12" s="8">
+        <v>11</v>
+      </c>
+      <c r="BI12" s="8">
+        <v>4</v>
+      </c>
+      <c r="BJ12" s="8">
+        <v>5</v>
+      </c>
+      <c r="BK12" s="8">
+        <v>4</v>
+      </c>
+      <c r="BL12" s="8">
+        <v>10</v>
+      </c>
+      <c r="BM12" s="8">
+        <v>9</v>
+      </c>
+      <c r="BN12" s="8">
+        <v>14</v>
+      </c>
+      <c r="BO12" s="8">
+        <v>10</v>
+      </c>
+      <c r="BP12" s="8">
+        <v>14</v>
+      </c>
+      <c r="BQ12" s="8">
+        <v>6</v>
+      </c>
+      <c r="BR12" s="8">
+        <v>13</v>
+      </c>
+      <c r="BS12" s="8">
+        <v>8</v>
+      </c>
+      <c r="BT12" s="8">
+        <v>10</v>
+      </c>
+      <c r="BU12" s="8">
+        <v>16</v>
+      </c>
+      <c r="BV12" s="8">
+        <v>17</v>
+      </c>
+      <c r="BW12" s="8">
+        <v>16</v>
+      </c>
+      <c r="BX12" s="8">
+        <v>22</v>
+      </c>
+      <c r="BY12" s="7">
+        <v>8</v>
+      </c>
+      <c r="BZ12" s="7">
+        <v>6</v>
+      </c>
+      <c r="CA12" s="7">
+        <v>3</v>
+      </c>
+      <c r="CB12" s="8">
+        <v>7</v>
+      </c>
+      <c r="CC12" s="8">
+        <v>6</v>
+      </c>
+      <c r="CD12" s="8">
+        <v>3</v>
+      </c>
+      <c r="CE12" s="8">
+        <v>10</v>
+      </c>
+      <c r="CF12" s="8">
+        <v>4</v>
+      </c>
+      <c r="CG12" s="8">
+        <v>17</v>
+      </c>
+      <c r="CH12" s="8">
+        <v>11</v>
+      </c>
+      <c r="CI12" s="8">
+        <v>17</v>
+      </c>
+      <c r="CJ12" s="8">
+        <v>12</v>
+      </c>
+      <c r="CK12" s="8">
+        <v>22</v>
+      </c>
+      <c r="CL12" s="7">
+        <v>15</v>
+      </c>
+      <c r="CM12" s="7">
+        <v>20</v>
+      </c>
+      <c r="CN12" s="7">
+        <v>9</v>
+      </c>
+      <c r="CO12" s="7">
+        <v>20</v>
+      </c>
+      <c r="CP12" s="7">
+        <v>23</v>
+      </c>
+      <c r="CQ12" s="9">
+        <v>7</v>
+      </c>
+      <c r="CR12" s="9">
+        <v>4</v>
+      </c>
+      <c r="CS12" s="7">
+        <v>21</v>
+      </c>
+      <c r="CT12" s="7">
+        <v>19</v>
+      </c>
+      <c r="CU12" s="7">
+        <v>11</v>
+      </c>
+      <c r="CV12" s="7">
+        <v>16</v>
+      </c>
+      <c r="CW12" s="7">
+        <v>10</v>
+      </c>
+      <c r="CX12" s="7">
+        <v>12</v>
+      </c>
+      <c r="CY12" s="7">
+        <v>21</v>
+      </c>
+      <c r="CZ12" s="7">
+        <v>6</v>
+      </c>
+      <c r="DA12" s="7">
+        <v>2</v>
+      </c>
+      <c r="DB12" s="8">
+        <v>19</v>
+      </c>
+      <c r="DC12" s="7">
+        <v>2</v>
+      </c>
+      <c r="DD12" s="8">
+        <v>17</v>
+      </c>
+      <c r="DE12" s="8">
+        <v>19</v>
+      </c>
+      <c r="DF12" s="7">
+        <v>4</v>
+      </c>
+      <c r="DG12" s="7">
+        <v>1</v>
+      </c>
+      <c r="DH12" s="8">
+        <v>20</v>
+      </c>
+      <c r="DI12" s="7">
+        <v>2</v>
+      </c>
+      <c r="DJ12" s="8">
+        <v>11</v>
+      </c>
+      <c r="DK12" s="8">
+        <v>10</v>
+      </c>
+      <c r="DL12" s="8">
+        <v>8</v>
+      </c>
+      <c r="DM12" s="8">
+        <v>17</v>
+      </c>
+      <c r="DN12" s="8">
+        <v>13</v>
+      </c>
+      <c r="DO12" s="8">
+        <v>14</v>
+      </c>
+      <c r="DP12" s="8">
+        <v>10</v>
+      </c>
+      <c r="DQ12" s="8">
+        <v>20</v>
+      </c>
+      <c r="DR12" s="7">
+        <v>4</v>
+      </c>
+      <c r="DS12" s="7">
+        <v>2</v>
+      </c>
+      <c r="DT12" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8">
+        <v>6</v>
+      </c>
+      <c r="F13" s="8">
+        <v>9</v>
+      </c>
+      <c r="G13" s="8">
+        <v>9</v>
+      </c>
+      <c r="H13" s="8">
+        <v>4</v>
+      </c>
+      <c r="I13" s="8">
+        <v>5</v>
+      </c>
+      <c r="J13" s="8">
+        <v>8</v>
+      </c>
+      <c r="K13" s="8">
+        <v>14</v>
+      </c>
+      <c r="L13" s="8">
+        <v>15</v>
+      </c>
+      <c r="M13" s="8">
+        <v>6</v>
+      </c>
+      <c r="N13" s="8">
+        <v>14</v>
+      </c>
+      <c r="O13" s="8">
+        <v>9</v>
+      </c>
+      <c r="P13" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>16</v>
+      </c>
+      <c r="R13" s="8">
+        <v>15</v>
+      </c>
+      <c r="S13" s="8">
+        <v>13</v>
+      </c>
+      <c r="T13" s="8">
+        <v>9</v>
+      </c>
+      <c r="U13" s="8">
+        <v>12</v>
+      </c>
+      <c r="V13" s="8">
+        <v>14</v>
+      </c>
+      <c r="W13" s="8">
+        <v>4</v>
+      </c>
+      <c r="X13" s="8">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>12</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>5</v>
+      </c>
+      <c r="AB13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>3</v>
+      </c>
+      <c r="AD13" s="8">
+        <v>20</v>
+      </c>
+      <c r="AE13" s="8">
+        <v>11</v>
+      </c>
+      <c r="AF13" s="8">
+        <v>15</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>14</v>
+      </c>
+      <c r="AH13" s="8">
+        <v>8</v>
+      </c>
+      <c r="AI13" s="8">
+        <v>16</v>
+      </c>
+      <c r="AJ13" s="8">
+        <v>12</v>
+      </c>
+      <c r="AK13" s="8">
+        <v>18</v>
+      </c>
+      <c r="AL13" s="8">
+        <v>12</v>
+      </c>
+      <c r="AM13" s="8">
+        <v>7</v>
+      </c>
+      <c r="AN13" s="8">
+        <v>6</v>
+      </c>
+      <c r="AO13" s="8">
+        <v>10</v>
+      </c>
+      <c r="AP13" s="8">
+        <v>16</v>
+      </c>
+      <c r="AQ13" s="8">
+        <v>15</v>
+      </c>
+      <c r="AR13" s="8">
+        <v>8</v>
+      </c>
+      <c r="AS13" s="8">
+        <v>15</v>
+      </c>
+      <c r="AT13" s="8">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
